--- a/AGILENT/METRICS/df_daily_levels_2020_02_25.xlsx
+++ b/AGILENT/METRICS/df_daily_levels_2020_02_25.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,73 +405,77 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>43845</v>
+        <v>43857</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2">
+        <v>43858</v>
+      </c>
       <c r="B3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43846</v>
+        <v>43859</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
+      <c r="A5" s="2">
+        <v>43860</v>
+      </c>
       <c r="B5" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>43847</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C6">
-        <v>16</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
+      <c r="A7" s="2">
+        <v>43861</v>
+      </c>
       <c r="B7" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2">
-        <v>43851</v>
+        <v>43864</v>
       </c>
       <c r="B8" s="1">
         <v>1</v>
       </c>
       <c r="C8">
-        <v>29</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -480,119 +484,115 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>43852</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C10">
-        <v>43</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43853</v>
+        <v>43865</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
+      <c r="A12" s="2">
+        <v>43866</v>
+      </c>
       <c r="B12" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C12">
-        <v>1</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>43854</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C13">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
+      <c r="A14" s="2">
+        <v>43867</v>
+      </c>
       <c r="B14" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>43855</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" s="2">
-        <v>43857</v>
+        <v>43868</v>
       </c>
       <c r="B16" s="1">
         <v>1</v>
       </c>
       <c r="C16">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>43858</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43859</v>
+        <v>43869</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" s="2">
-        <v>43860</v>
+        <v>43871</v>
       </c>
       <c r="B19" s="1">
         <v>1</v>
       </c>
       <c r="C19">
-        <v>21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" s="2"/>
       <c r="B20" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C20">
         <v>1</v>
@@ -600,33 +600,35 @@
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43861</v>
+        <v>43872</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>8</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43864</v>
+        <v>43873</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="23" spans="1:3">
-      <c r="A23" s="2"/>
+      <c r="A23" s="2">
+        <v>43874</v>
+      </c>
       <c r="B23" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>33</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -635,49 +637,49 @@
         <v>3</v>
       </c>
       <c r="C24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43865</v>
+        <v>43875</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>33</v>
+        <v>24</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43866</v>
+        <v>43876</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>23</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>43879</v>
+      </c>
       <c r="B27" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>29</v>
       </c>
     </row>
     <row r="28" spans="1:3">
-      <c r="A28" s="2">
-        <v>43867</v>
-      </c>
+      <c r="A28" s="2"/>
       <c r="B28" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>41</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -691,113 +693,88 @@
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43868</v>
+        <v>43880</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B31" s="1">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="2"/>
-      <c r="B31" s="1">
-        <v>2</v>
-      </c>
-      <c r="C31">
-        <v>3</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43869</v>
+        <v>43882</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>36</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2">
-        <v>43871</v>
+        <v>43885</v>
       </c>
       <c r="B33" s="1">
         <v>1</v>
       </c>
       <c r="C33">
-        <v>47</v>
+        <v>14</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2">
-        <v>43872</v>
-      </c>
+      <c r="A34" s="2"/>
       <c r="B34" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C34">
-        <v>41</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>43873</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C35">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43874</v>
+        <v>43886</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3">
-      <c r="A37" s="2"/>
-      <c r="B37" s="1">
-        <v>3</v>
-      </c>
-      <c r="C37">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
-        <v>43875</v>
-      </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
+  <mergeCells count="9">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A27:A29"/>
+    <mergeCell ref="A33:A35"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AGILENT/METRICS/df_daily_levels_2020_02_25.xlsx
+++ b/AGILENT/METRICS/df_daily_levels_2020_02_25.xlsx
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -405,376 +405,397 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2">
-        <v>43857</v>
+        <v>43858</v>
       </c>
       <c r="B2" s="1">
         <v>1</v>
       </c>
       <c r="C2">
-        <v>35</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2">
-        <v>43858</v>
+        <v>43859</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43859</v>
+        <v>43860</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>43860</v>
-      </c>
+      <c r="A5" s="2"/>
       <c r="B5" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
+      <c r="A6" s="2">
+        <v>43861</v>
+      </c>
       <c r="B6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6">
-        <v>1</v>
+        <v>8</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2">
-        <v>43861</v>
+        <v>43864</v>
       </c>
       <c r="B7" s="1">
         <v>1</v>
       </c>
       <c r="C7">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>43864</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2"/>
       <c r="B9" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
+      <c r="A10" s="2">
+        <v>43865</v>
+      </c>
       <c r="B10" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>33</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43865</v>
+        <v>43866</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>33</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>43866</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C12">
-        <v>23</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
+      <c r="A13" s="2">
+        <v>43867</v>
+      </c>
       <c r="B13" s="1">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1">
         <v>3</v>
       </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>43867</v>
-      </c>
-      <c r="B14" s="1">
-        <v>1</v>
-      </c>
       <c r="C14">
-        <v>40</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:3">
-      <c r="A15" s="2"/>
+      <c r="A15" s="2">
+        <v>43868</v>
+      </c>
       <c r="B15" s="1">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="1">
+        <v>2</v>
+      </c>
+      <c r="C16">
         <v>3</v>
       </c>
-      <c r="C15">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B16" s="1">
-        <v>1</v>
-      </c>
-      <c r="C16">
-        <v>29</v>
-      </c>
     </row>
     <row r="17" spans="1:3">
-      <c r="A17" s="2"/>
+      <c r="A17" s="2">
+        <v>43869</v>
+      </c>
       <c r="B17" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C17">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" s="2">
-        <v>43869</v>
+        <v>43871</v>
       </c>
       <c r="B18" s="1">
         <v>1</v>
       </c>
       <c r="C18">
-        <v>2</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:3">
-      <c r="A19" s="2">
-        <v>43871</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C19">
-        <v>46</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:3">
-      <c r="A20" s="2"/>
+      <c r="A20" s="2">
+        <v>43872</v>
+      </c>
       <c r="B20" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" s="2">
-        <v>43872</v>
+        <v>43873</v>
       </c>
       <c r="B21" s="1">
         <v>1</v>
       </c>
       <c r="C21">
-        <v>41</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43873</v>
+        <v>43874</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2"/>
+      <c r="B23" s="1">
+        <v>3</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>43875</v>
+      </c>
+      <c r="B24" s="1">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="2">
-        <v>43874</v>
-      </c>
-      <c r="B23" s="1">
-        <v>1</v>
-      </c>
-      <c r="C23">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="2"/>
-      <c r="B24" s="1">
-        <v>3</v>
-      </c>
-      <c r="C24">
-        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" s="2">
-        <v>43875</v>
+        <v>43876</v>
       </c>
       <c r="B25" s="1">
         <v>1</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" s="2">
-        <v>43876</v>
+        <v>43879</v>
       </c>
       <c r="B26" s="1">
         <v>1</v>
       </c>
       <c r="C26">
-        <v>2</v>
+        <v>29</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2">
-        <v>43879</v>
-      </c>
+      <c r="A27" s="2"/>
       <c r="B27" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C27">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C28">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:3">
-      <c r="A29" s="2"/>
+      <c r="A29" s="2">
+        <v>43880</v>
+      </c>
       <c r="B29" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C29">
-        <v>1</v>
+        <v>37</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" s="2">
-        <v>43880</v>
+        <v>43881</v>
       </c>
       <c r="B30" s="1">
         <v>1</v>
       </c>
       <c r="C30">
-        <v>37</v>
+        <v>29</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43881</v>
+        <v>43882</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>29</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" s="2">
-        <v>43882</v>
+        <v>43885</v>
       </c>
       <c r="B32" s="1">
         <v>1</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>14</v>
       </c>
     </row>
     <row r="33" spans="1:3">
-      <c r="A33" s="2">
-        <v>43885</v>
-      </c>
+      <c r="A33" s="2"/>
       <c r="B33" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C33">
-        <v>14</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2"/>
       <c r="B34" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C34">
         <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2"/>
+      <c r="A35" s="2">
+        <v>43886</v>
+      </c>
       <c r="B35" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43886</v>
+        <v>43887</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2"/>
+      <c r="B37" s="1">
+        <v>3</v>
+      </c>
+      <c r="C37">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>43888</v>
+      </c>
+      <c r="B38" s="1">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="A8:A10"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A33:A35"/>
+  <mergeCells count="10">
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A26:A28"/>
+    <mergeCell ref="A32:A34"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AGILENT/METRICS/df_daily_levels_2020_02_25.xlsx
+++ b/AGILENT/METRICS/df_daily_levels_2020_02_25.xlsx
@@ -22,7 +22,7 @@
     <t>QCDate</t>
   </si>
   <si>
-    <t>QCValidation</t>
+    <t>ProductLevel</t>
   </si>
 </sst>
 </file>
@@ -386,7 +386,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -411,29 +411,27 @@
         <v>1</v>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>43859</v>
-      </c>
+      <c r="A3" s="2"/>
       <c r="B3" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C3">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2">
-        <v>43860</v>
+        <v>43859</v>
       </c>
       <c r="B4" s="1">
         <v>1</v>
       </c>
       <c r="C4">
-        <v>21</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -442,196 +440,188 @@
         <v>2</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2">
-        <v>43861</v>
+        <v>43860</v>
       </c>
       <c r="B6" s="1">
         <v>1</v>
       </c>
       <c r="C6">
-        <v>8</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>43864</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2"/>
       <c r="B8" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C8">
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
+      <c r="A9" s="2">
+        <v>43861</v>
+      </c>
       <c r="B9" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C9">
         <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>43865</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C10">
-        <v>33</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2">
-        <v>43866</v>
+        <v>43864</v>
       </c>
       <c r="B11" s="1">
         <v>1</v>
       </c>
       <c r="C11">
-        <v>23</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2"/>
       <c r="B12" s="1">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1">
         <v>3</v>
       </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
+      <c r="C13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>43865</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2"/>
+      <c r="B15" s="1">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>43866</v>
+      </c>
+      <c r="B16" s="1">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2"/>
+      <c r="B17" s="1">
+        <v>2</v>
+      </c>
+      <c r="C17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2"/>
+      <c r="B18" s="1">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
         <v>43867</v>
       </c>
-      <c r="B13" s="1">
-        <v>1</v>
-      </c>
-      <c r="C13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1">
+      <c r="B19" s="1">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2"/>
+      <c r="B20" s="1">
+        <v>2</v>
+      </c>
+      <c r="C20">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2"/>
+      <c r="B21" s="1">
         <v>3</v>
       </c>
-      <c r="C14">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3">
-      <c r="A15" s="2">
-        <v>43868</v>
-      </c>
-      <c r="B15" s="1">
-        <v>1</v>
-      </c>
-      <c r="C15">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3">
-      <c r="A16" s="2"/>
-      <c r="B16" s="1">
-        <v>2</v>
-      </c>
-      <c r="C16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="2">
-        <v>43869</v>
-      </c>
-      <c r="B17" s="1">
-        <v>1</v>
-      </c>
-      <c r="C17">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="2">
-        <v>43871</v>
-      </c>
-      <c r="B18" s="1">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="2"/>
-      <c r="B19" s="1">
-        <v>3</v>
-      </c>
-      <c r="C19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="2">
-        <v>43872</v>
-      </c>
-      <c r="B20" s="1">
-        <v>1</v>
-      </c>
-      <c r="C20">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="2">
-        <v>43873</v>
-      </c>
-      <c r="B21" s="1">
-        <v>1</v>
-      </c>
       <c r="C21">
-        <v>24</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" s="2">
-        <v>43874</v>
+        <v>43868</v>
       </c>
       <c r="B22" s="1">
         <v>1</v>
       </c>
       <c r="C22">
-        <v>33</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" s="2"/>
       <c r="B23" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C23">
-        <v>1</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" s="2">
-        <v>43875</v>
+        <v>43871</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
@@ -641,161 +631,323 @@
       </c>
     </row>
     <row r="25" spans="1:3">
-      <c r="A25" s="2">
-        <v>43876</v>
-      </c>
+      <c r="A25" s="2"/>
       <c r="B25" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C25">
-        <v>2</v>
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:3">
-      <c r="A26" s="2">
-        <v>43879</v>
-      </c>
+      <c r="A26" s="2"/>
       <c r="B26" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C26">
-        <v>29</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:3">
-      <c r="A27" s="2"/>
+      <c r="A27" s="2">
+        <v>43872</v>
+      </c>
       <c r="B27" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" s="2"/>
       <c r="B28" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C28">
-        <v>1</v>
+        <v>16</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" s="2">
-        <v>43880</v>
+        <v>43873</v>
       </c>
       <c r="B29" s="1">
         <v>1</v>
       </c>
       <c r="C29">
-        <v>37</v>
+        <v>10</v>
       </c>
     </row>
     <row r="30" spans="1:3">
-      <c r="A30" s="2">
-        <v>43881</v>
-      </c>
+      <c r="A30" s="2"/>
       <c r="B30" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>9</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" s="2">
-        <v>43882</v>
+        <v>43874</v>
       </c>
       <c r="B31" s="1">
         <v>1</v>
       </c>
       <c r="C31">
-        <v>36</v>
+        <v>7</v>
       </c>
     </row>
     <row r="32" spans="1:3">
-      <c r="A32" s="2">
-        <v>43885</v>
-      </c>
+      <c r="A32" s="2"/>
       <c r="B32" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C32">
-        <v>14</v>
+        <v>24</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2"/>
       <c r="B33" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C33">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3">
-      <c r="A34" s="2"/>
+      <c r="A34" s="2">
+        <v>43875</v>
+      </c>
       <c r="B34" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C34">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="2">
-        <v>43886</v>
-      </c>
+      <c r="A35" s="2"/>
       <c r="B35" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="2">
-        <v>43887</v>
+        <v>43879</v>
       </c>
       <c r="B36" s="1">
         <v>1</v>
       </c>
       <c r="C36">
-        <v>33</v>
+        <v>8</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="2"/>
       <c r="B37" s="1">
+        <v>2</v>
+      </c>
+      <c r="C37">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2"/>
+      <c r="B38" s="1">
         <v>3</v>
       </c>
-      <c r="C37">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2">
+      <c r="C38">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>43880</v>
+      </c>
+      <c r="B39" s="1">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2"/>
+      <c r="B40" s="1">
+        <v>2</v>
+      </c>
+      <c r="C40">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>43881</v>
+      </c>
+      <c r="B41" s="1">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2"/>
+      <c r="B42" s="1">
+        <v>2</v>
+      </c>
+      <c r="C42">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>43882</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2"/>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>43885</v>
+      </c>
+      <c r="B45" s="1">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2"/>
+      <c r="B46" s="1">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2"/>
+      <c r="B47" s="1">
+        <v>3</v>
+      </c>
+      <c r="C47">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>43886</v>
+      </c>
+      <c r="B48" s="1">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2"/>
+      <c r="B49" s="1">
+        <v>2</v>
+      </c>
+      <c r="C49">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>43887</v>
+      </c>
+      <c r="B50" s="1">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2"/>
+      <c r="B51" s="1">
+        <v>2</v>
+      </c>
+      <c r="C51">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2"/>
+      <c r="B52" s="1">
+        <v>3</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
         <v>43888</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-      <c r="C38">
-        <v>29</v>
+      <c r="B53" s="1">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2"/>
+      <c r="B54" s="1">
+        <v>2</v>
+      </c>
+      <c r="C54">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="22">
+    <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A7:A9"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A6:A8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="A11:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A26:A28"/>
-    <mergeCell ref="A32:A34"/>
-    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A24:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A33"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="A36:A38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A50:A52"/>
+    <mergeCell ref="A53:A54"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
